--- a/sdmlibPaper/SDMLibResults.xlsx
+++ b/sdmlibPaper/SDMLibResults.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="SDMLibResults_1" localSheetId="0">Tabelle1!$A$1:$F$44</definedName>
+    <definedName name="SDMLibResults_1" localSheetId="0">Tabelle1!$A$1:$F$132</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>------------------</t>
   </si>
@@ -127,6 +127,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Batch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> FWD</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -152,10 +176,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$5:$A$11</c:f>
+              <c:f>Tabelle1!$A$5:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -176,36 +200,228 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26402</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41802</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$5:$B$11</c:f>
+              <c:f>Tabelle1!$B$5:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6000000000000003E-2</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4999999999999998E-2</c:v>
+                <c:pt idx="11">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -231,10 +447,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$5:$A$11</c:f>
+              <c:f>Tabelle1!$A$5:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -255,36 +471,228 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26402</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41802</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$5:$C$11</c:f>
+              <c:f>Tabelle1!$C$5:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.20799999999999999</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24399999999999999</c:v>
+                  <c:v>0.26200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27800000000000002</c:v>
+                  <c:v>0.26700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26500000000000001</c:v>
+                  <c:v>0.376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35699999999999998</c:v>
+                  <c:v>0.45600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41499999999999998</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44700000000000001</c:v>
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.373</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.496</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.589</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -310,10 +718,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$5:$A$11</c:f>
+              <c:f>Tabelle1!$A$5:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -334,21 +742,117 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26402</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41802</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$5:$D$11</c:f>
+              <c:f>Tabelle1!$D$5:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.0000000000000001E-3</c:v>
@@ -357,13 +861,109 @@
                   <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.9999999999999993E-3</c:v>
+                <c:pt idx="24">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,21 +980,45 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143751168"/>
-        <c:axId val="167713536"/>
+        <c:axId val="203744256"/>
+        <c:axId val="152746176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143751168"/>
+        <c:axId val="203744256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> model elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167713536"/>
+        <c:crossAx val="152746176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -402,18 +1026,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167713536"/>
+        <c:axId val="152746176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>sec.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143751168"/>
+        <c:crossAx val="203744256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -449,6 +1092,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Incr. FWD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -460,7 +1122,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$15</c:f>
+              <c:f>Tabelle1!$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -474,10 +1136,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$16:$A$22</c:f>
+              <c:f>Tabelle1!$A$48:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -498,36 +1160,228 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26402</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41802</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$16:$B$22</c:f>
+              <c:f>Tabelle1!$B$48:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,7 +1393,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$15</c:f>
+              <c:f>Tabelle1!$C$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -553,10 +1407,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$16:$A$22</c:f>
+              <c:f>Tabelle1!$A$48:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -577,36 +1431,228 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26402</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41802</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$16:$C$22</c:f>
+              <c:f>Tabelle1!$C$48:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,7 +1664,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$15</c:f>
+              <c:f>Tabelle1!$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -632,10 +1678,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$16:$A$22</c:f>
+              <c:f>Tabelle1!$A$48:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -656,36 +1702,228 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26402</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41802</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$16:$D$22</c:f>
+              <c:f>Tabelle1!$D$48:$D$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,21 +1940,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154968064"/>
-        <c:axId val="149165120"/>
+        <c:axId val="174149120"/>
+        <c:axId val="216287488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154968064"/>
+        <c:axId val="174149120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># model elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149165120"/>
+        <c:crossAx val="216287488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -724,18 +1981,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149165120"/>
+        <c:axId val="216287488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>sec.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154968064"/>
+        <c:crossAx val="174149120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -771,6 +2047,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Batch BWD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -782,7 +2077,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$26</c:f>
+              <c:f>Tabelle1!$B$90</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -796,10 +2091,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$27:$A$33</c:f>
+              <c:f>Tabelle1!$A$91:$A$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -820,36 +2115,108 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$27:$B$33</c:f>
+              <c:f>Tabelle1!$B$91:$B$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,7 +2228,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$26</c:f>
+              <c:f>Tabelle1!$C$90</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -875,10 +2242,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$27:$A$33</c:f>
+              <c:f>Tabelle1!$A$91:$A$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -899,36 +2266,108 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$27:$C$33</c:f>
+              <c:f>Tabelle1!$C$91:$C$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.46400000000000002</c:v>
+                  <c:v>0.309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75900000000000001</c:v>
+                  <c:v>0.56799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0009999999999999</c:v>
+                  <c:v>0.84699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5760000000000001</c:v>
+                  <c:v>1.462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2160000000000002</c:v>
+                  <c:v>2.0110000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0960000000000001</c:v>
+                  <c:v>2.702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0060000000000002</c:v>
+                  <c:v>3.5529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0780000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.250999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.871</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.687999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.483000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.539000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +2379,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$26</c:f>
+              <c:f>Tabelle1!$D$90</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -954,10 +2393,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$27:$A$33</c:f>
+              <c:f>Tabelle1!$A$91:$A$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -978,36 +2417,108 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$27:$D$33</c:f>
+              <c:f>Tabelle1!$D$91:$D$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,21 +2535,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143751680"/>
-        <c:axId val="167755776"/>
+        <c:axId val="151972352"/>
+        <c:axId val="221423872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143751680"/>
+        <c:axId val="151972352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># model elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167755776"/>
+        <c:crossAx val="221423872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1046,18 +2576,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167755776"/>
+        <c:axId val="221423872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>sec.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143751680"/>
+        <c:crossAx val="151972352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1093,6 +2642,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Incr. BWD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1104,7 +2672,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$37</c:f>
+              <c:f>Tabelle1!$B$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1118,10 +2686,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$38:$A$44</c:f>
+              <c:f>Tabelle1!$A$114:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -1142,36 +2710,108 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$38:$B$44</c:f>
+              <c:f>Tabelle1!$B$114:$B$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,7 +2823,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$37</c:f>
+              <c:f>Tabelle1!$C$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,10 +2837,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$38:$A$44</c:f>
+              <c:f>Tabelle1!$A$114:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -1221,21 +2861,57 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$38:$C$44</c:f>
+              <c:f>Tabelle1!$C$114:$C$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.0000000000000001E-3</c:v>
@@ -1251,6 +2927,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,7 +2974,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$37</c:f>
+              <c:f>Tabelle1!$D$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1276,10 +2988,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$38:$A$44</c:f>
+              <c:f>Tabelle1!$A$114:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1102</c:v>
                 </c:pt>
@@ -1300,36 +3012,108 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$38:$D$44</c:f>
+              <c:f>Tabelle1!$D$114:$D$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,21 +3130,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167370752"/>
-        <c:axId val="167762688"/>
+        <c:axId val="174147072"/>
+        <c:axId val="221428480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167370752"/>
+        <c:axId val="174147072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># model elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167762688"/>
+        <c:crossAx val="221428480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1368,18 +3171,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167762688"/>
+        <c:axId val="221428480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>sec.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167370752"/>
+        <c:crossAx val="174147072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,16 +3227,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1435,20 +3257,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1466,19 +3288,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>719137</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>719137</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1495,20 +3317,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>709612</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>709612</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1817,10 +3639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,25 +3650,25 @@
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1862,67 +3684,79 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1102</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>0.20799999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="D5">
-        <v>6.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E5">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2202</v>
       </c>
       <c r="B6">
-        <v>3.3000000000000002E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C6">
-        <v>0.24399999999999999</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E6">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3302</v>
       </c>
       <c r="B7">
-        <v>4.2999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C7">
-        <v>0.27800000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="D7">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4402</v>
       </c>
       <c r="B8">
-        <v>6.6000000000000003E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C8">
-        <v>0.26500000000000001</v>
+        <v>0.376</v>
       </c>
       <c r="D8">
         <v>1.0999999999999999E-2</v>
@@ -1930,509 +3764,2353 @@
       <c r="E8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5502</v>
       </c>
       <c r="B9">
-        <v>7.0999999999999994E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C9">
-        <v>0.35699999999999998</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D9">
-        <v>2.1999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E9">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6602</v>
       </c>
       <c r="B10">
-        <v>7.1999999999999995E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="C10">
-        <v>0.41499999999999998</v>
+        <v>0.49</v>
       </c>
       <c r="D10">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E10">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7702</v>
       </c>
       <c r="B11">
-        <v>4.4999999999999998E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C11">
-        <v>0.44700000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="D11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8802</v>
+      </c>
+      <c r="B12">
+        <v>0.03</v>
+      </c>
+      <c r="C12">
+        <v>0.53</v>
+      </c>
+      <c r="D12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9902</v>
+      </c>
+      <c r="B13">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.622</v>
+      </c>
+      <c r="D13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11002</v>
+      </c>
+      <c r="B14">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12102</v>
+      </c>
+      <c r="B15">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="D15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1102</v>
+        <v>13202</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C16">
-        <v>4.0000000000000001E-3</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D16">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="F16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2202</v>
+        <v>14302</v>
       </c>
       <c r="B17">
-        <v>5.0000000000000001E-3</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C17">
-        <v>5.0000000000000001E-3</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="D17">
-        <v>2E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E17">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3302</v>
+        <v>15402</v>
       </c>
       <c r="B18">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="C18">
-        <v>6.0000000000000001E-3</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D18">
-        <v>2E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E18">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="F18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4402</v>
+        <v>16502</v>
       </c>
       <c r="B19">
-        <v>5.0000000000000001E-3</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C19">
-        <v>7.0000000000000001E-3</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D19">
-        <v>4.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E19">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="F19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5502</v>
+        <v>17602</v>
       </c>
       <c r="B20">
-        <v>7.0000000000000001E-3</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C20">
-        <v>8.9999999999999993E-3</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D20">
-        <v>2E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E20">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6602</v>
+        <v>18702</v>
       </c>
       <c r="B21">
-        <v>6.0000000000000001E-3</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C21">
-        <v>1.2999999999999999E-2</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="D21">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7702</v>
+        <v>19802</v>
       </c>
       <c r="B22">
-        <v>6.0000000000000001E-3</v>
+        <v>0.08</v>
       </c>
       <c r="C22">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="D22">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20902</v>
+      </c>
+      <c r="B23">
+        <v>0.09</v>
+      </c>
+      <c r="C23">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F23">
         <v>1.4E-2</v>
       </c>
-      <c r="D22">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E22">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22002</v>
+      </c>
+      <c r="B24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D24">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23102</v>
+      </c>
+      <c r="B25">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D25">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24202</v>
+      </c>
+      <c r="B26">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D26">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.02</v>
+      </c>
+      <c r="F26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1102</v>
+        <v>25302</v>
       </c>
       <c r="B27">
-        <v>1.7999999999999999E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="C27">
-        <v>0.46400000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D27">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E27">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26402</v>
+      </c>
+      <c r="B28">
+        <v>0.154</v>
+      </c>
+      <c r="C28">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E28">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27502</v>
+      </c>
+      <c r="B29">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C29">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="D29">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F29">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28602</v>
+      </c>
+      <c r="B30">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C30">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.02</v>
+      </c>
+      <c r="E30">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F30">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29702</v>
+      </c>
+      <c r="B31">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C31">
+        <v>1.03</v>
+      </c>
+      <c r="D31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30802</v>
+      </c>
+      <c r="B32">
+        <v>0.217</v>
+      </c>
+      <c r="C32">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="D32">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F32">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31902</v>
+      </c>
+      <c r="B33">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C33">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D33">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E33">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F33">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33002</v>
+      </c>
+      <c r="B34">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C34">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="D34">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F34">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34102</v>
+      </c>
+      <c r="B35">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C35">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="D35">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E35">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F35">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35202</v>
+      </c>
+      <c r="B36">
+        <v>0.193</v>
+      </c>
+      <c r="C36">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="D36">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E36">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F36">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36302</v>
+      </c>
+      <c r="B37">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C37">
+        <v>1.373</v>
+      </c>
+      <c r="D37">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E37">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F37">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37402</v>
+      </c>
+      <c r="B38">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C38">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="D38">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E38">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F38">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38502</v>
+      </c>
+      <c r="B39">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C39">
+        <v>1.333</v>
+      </c>
+      <c r="D39">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F39">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39602</v>
+      </c>
+      <c r="B40">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="C40">
+        <v>1.496</v>
+      </c>
+      <c r="D40">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E40">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F40">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40702</v>
+      </c>
+      <c r="B41">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="C41">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="D41">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.03</v>
+      </c>
+      <c r="F41">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41802</v>
+      </c>
+      <c r="B42">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C42">
+        <v>1.589</v>
+      </c>
+      <c r="D42">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E42">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42902</v>
+      </c>
+      <c r="B43">
+        <v>0.372</v>
+      </c>
+      <c r="C43">
+        <v>1.49</v>
+      </c>
+      <c r="D43">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E43">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F43">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1102</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>2E-3</v>
+      </c>
+      <c r="D48">
+        <v>2E-3</v>
+      </c>
+      <c r="E48">
+        <v>1E-3</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2202</v>
+      </c>
+      <c r="B49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D49">
+        <v>1E-3</v>
+      </c>
+      <c r="E49">
+        <v>1E-3</v>
+      </c>
+      <c r="F49">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3302</v>
+      </c>
+      <c r="B50">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C50">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D50">
+        <v>2E-3</v>
+      </c>
+      <c r="E50">
+        <v>2E-3</v>
+      </c>
+      <c r="F50">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4402</v>
+      </c>
+      <c r="B51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D51">
+        <v>2E-3</v>
+      </c>
+      <c r="E51">
+        <v>1E-3</v>
+      </c>
+      <c r="F51">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5502</v>
+      </c>
+      <c r="B52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C52">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D52">
+        <v>2E-3</v>
+      </c>
+      <c r="E52">
+        <v>2E-3</v>
+      </c>
+      <c r="F52">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>6602</v>
+      </c>
+      <c r="B53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C53">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="D53">
+        <v>2E-3</v>
+      </c>
+      <c r="E53">
+        <v>2E-3</v>
+      </c>
+      <c r="F53">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7702</v>
+      </c>
+      <c r="B54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C54">
+        <v>0.01</v>
+      </c>
+      <c r="D54">
+        <v>2E-3</v>
+      </c>
+      <c r="E54">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F54">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8802</v>
+      </c>
+      <c r="B55">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C55">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D55">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E55">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F55">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>9902</v>
+      </c>
+      <c r="B56">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C56">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D56">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E56">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F56">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>11002</v>
+      </c>
+      <c r="B57">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C57">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D57">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E57">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F57">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>12102</v>
+      </c>
+      <c r="B58">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C58">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D58">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E58">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F58">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>13202</v>
+      </c>
+      <c r="B59">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C59">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D59">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E59">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F59">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>14302</v>
+      </c>
+      <c r="B60">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C60">
+        <v>0.02</v>
+      </c>
+      <c r="D60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>15402</v>
+      </c>
+      <c r="B61">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C61">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D61">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E61">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F61">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>16502</v>
+      </c>
+      <c r="B62">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C62">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D62">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E62">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F62">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>17602</v>
+      </c>
+      <c r="B63">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C63">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E63">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F63">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>18702</v>
+      </c>
+      <c r="B64">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C64">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D64">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E64">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F64">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>19802</v>
+      </c>
+      <c r="B65">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C65">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D65">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E65">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F65">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>20902</v>
+      </c>
+      <c r="B66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C66">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D66">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E66">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F66">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>22002</v>
+      </c>
+      <c r="B67">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C67">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D67">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E67">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F67">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>23102</v>
+      </c>
+      <c r="B68">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C68">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D68">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E68">
+        <v>0.01</v>
+      </c>
+      <c r="F68">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>24202</v>
+      </c>
+      <c r="B69">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C69">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D69">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E69">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F69">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>25302</v>
+      </c>
+      <c r="B70">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C70">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D70">
+        <v>0.01</v>
+      </c>
+      <c r="E70">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F70">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>26402</v>
+      </c>
+      <c r="B71">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C71">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D71">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E71">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F71">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>27502</v>
+      </c>
+      <c r="B72">
+        <v>0.02</v>
+      </c>
+      <c r="C72">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D72">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E72">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F72">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>28602</v>
+      </c>
+      <c r="B73">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C73">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D73">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E73">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F73">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>29702</v>
+      </c>
+      <c r="B74">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C74">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D74">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E74">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F74">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>30802</v>
+      </c>
+      <c r="B75">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C75">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D75">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E75">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F75">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>31902</v>
+      </c>
+      <c r="B76">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C76">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D76">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E76">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F76">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>33002</v>
+      </c>
+      <c r="B77">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C77">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D77">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E77">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F77">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>34102</v>
+      </c>
+      <c r="B78">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C78">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D78">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E78">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F78">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>35202</v>
+      </c>
+      <c r="B79">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C79">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D79">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E79">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F79">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>36302</v>
+      </c>
+      <c r="B80">
+        <v>0.02</v>
+      </c>
+      <c r="C80">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D80">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E80">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F80">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>37402</v>
+      </c>
+      <c r="B81">
+        <v>0.02</v>
+      </c>
+      <c r="C81">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D81">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E81">
+        <v>0.02</v>
+      </c>
+      <c r="F81">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>38502</v>
+      </c>
+      <c r="B82">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C82">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D82">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E82">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F82">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>39602</v>
+      </c>
+      <c r="B83">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C83">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D83">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E83">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F83">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>40702</v>
+      </c>
+      <c r="B84">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C84">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D84">
+        <v>0.02</v>
+      </c>
+      <c r="E84">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F84">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>41802</v>
+      </c>
+      <c r="B85">
+        <v>0.03</v>
+      </c>
+      <c r="C85">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D85">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E85">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F85">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>42902</v>
+      </c>
+      <c r="B86">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C86">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D86">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E86">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F86">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1102</v>
+      </c>
+      <c r="B91">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C91">
+        <v>0.309</v>
+      </c>
+      <c r="D91">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E91">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F91">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>2202</v>
       </c>
-      <c r="B28">
+      <c r="B92">
         <v>0.01</v>
       </c>
-      <c r="C28">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="D28">
+      <c r="C92">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D92">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E92">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F92">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3302</v>
+      </c>
+      <c r="B93">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C93">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D93">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E93">
+        <v>0.02</v>
+      </c>
+      <c r="F93">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4402</v>
+      </c>
+      <c r="B94">
+        <v>0.02</v>
+      </c>
+      <c r="C94">
+        <v>1.462</v>
+      </c>
+      <c r="D94">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E94">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F94">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5502</v>
+      </c>
+      <c r="B95">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C95">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="D95">
+        <v>0.02</v>
+      </c>
+      <c r="E95">
+        <v>0.02</v>
+      </c>
+      <c r="F95">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>6602</v>
+      </c>
+      <c r="B96">
+        <v>0.02</v>
+      </c>
+      <c r="C96">
+        <v>2.702</v>
+      </c>
+      <c r="D96">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E96">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F96">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>7702</v>
+      </c>
+      <c r="B97">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C97">
+        <v>3.5529999999999999</v>
+      </c>
+      <c r="D97">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E97">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F97">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>8802</v>
+      </c>
+      <c r="B98">
+        <v>0.02</v>
+      </c>
+      <c r="C98">
+        <v>4.68</v>
+      </c>
+      <c r="D98">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E98">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F98">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>9902</v>
+      </c>
+      <c r="B99">
+        <v>0.03</v>
+      </c>
+      <c r="C99">
+        <v>6.0449999999999999</v>
+      </c>
+      <c r="D99">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E99">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F99">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>11002</v>
+      </c>
+      <c r="B100">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C100">
+        <v>7.0780000000000003</v>
+      </c>
+      <c r="D100">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E100">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F100">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>12102</v>
+      </c>
+      <c r="B101">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C101">
+        <v>8.6370000000000005</v>
+      </c>
+      <c r="D101">
+        <v>0.08</v>
+      </c>
+      <c r="E101">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F101">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>13202</v>
+      </c>
+      <c r="B102">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C102">
+        <v>10.250999999999999</v>
+      </c>
+      <c r="D102">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E102">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F102">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>14302</v>
+      </c>
+      <c r="B103">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C103">
+        <v>13.35</v>
+      </c>
+      <c r="D103">
+        <v>0.122</v>
+      </c>
+      <c r="E103">
+        <v>0.125</v>
+      </c>
+      <c r="F103">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>15402</v>
+      </c>
+      <c r="B104">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C104">
+        <v>14.291</v>
+      </c>
+      <c r="D104">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E104">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F104">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>16502</v>
+      </c>
+      <c r="B105">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C105">
+        <v>15.871</v>
+      </c>
+      <c r="D105">
+        <v>0.155</v>
+      </c>
+      <c r="E105">
+        <v>0.154</v>
+      </c>
+      <c r="F105">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>17602</v>
+      </c>
+      <c r="B106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C106">
+        <v>18.687999999999999</v>
+      </c>
+      <c r="D106">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E106">
+        <v>0.187</v>
+      </c>
+      <c r="F106">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>18702</v>
+      </c>
+      <c r="B107">
+        <v>0.08</v>
+      </c>
+      <c r="C107">
+        <v>20.483000000000001</v>
+      </c>
+      <c r="D107">
+        <v>0.17</v>
+      </c>
+      <c r="E107">
+        <v>0.17</v>
+      </c>
+      <c r="F107">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>19802</v>
+      </c>
+      <c r="B108">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C108">
+        <v>23.25</v>
+      </c>
+      <c r="D108">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E108">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F108">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>20902</v>
+      </c>
+      <c r="B109">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C109">
+        <v>25.539000000000001</v>
+      </c>
+      <c r="D109">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E109">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="F109">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1102</v>
+      </c>
+      <c r="B114">
+        <v>1E-3</v>
+      </c>
+      <c r="C114">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D114">
+        <v>1E-3</v>
+      </c>
+      <c r="E114">
+        <v>1E-3</v>
+      </c>
+      <c r="F114">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2202</v>
+      </c>
+      <c r="B115">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C115">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D115">
+        <v>2E-3</v>
+      </c>
+      <c r="E115">
+        <v>1E-3</v>
+      </c>
+      <c r="F115">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3302</v>
+      </c>
+      <c r="B116">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C116">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D116">
+        <v>1E-3</v>
+      </c>
+      <c r="E116">
+        <v>1E-3</v>
+      </c>
+      <c r="F116">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>4402</v>
+      </c>
+      <c r="B117">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C117">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D117">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E117">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F117">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>5502</v>
+      </c>
+      <c r="B118">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C118">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D118">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E118">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F118">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>6602</v>
+      </c>
+      <c r="B119">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C119">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E28">
+      <c r="D119">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E119">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F119">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>7702</v>
+      </c>
+      <c r="B120">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C120">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D120">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E120">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F120">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>8802</v>
+      </c>
+      <c r="B121">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3302</v>
-      </c>
-      <c r="B29">
+      <c r="C121">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D121">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E121">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F121">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>9902</v>
+      </c>
+      <c r="B122">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C122">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D122">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E122">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F122">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>11002</v>
+      </c>
+      <c r="B123">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C123">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D123">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E123">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F123">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>12102</v>
+      </c>
+      <c r="B124">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C124">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D124">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E124">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F124">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>13202</v>
+      </c>
+      <c r="B125">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C125">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D125">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E125">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F125">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>14302</v>
+      </c>
+      <c r="B126">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C126">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D126">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E126">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F126">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>15402</v>
+      </c>
+      <c r="B127">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C127">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D127">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E127">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F127">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>16502</v>
+      </c>
+      <c r="B128">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C128">
+        <v>0.02</v>
+      </c>
+      <c r="D128">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E128">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F128">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>17602</v>
+      </c>
+      <c r="B129">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C129">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C29">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="D29">
+      <c r="D129">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E129">
+        <v>0.01</v>
+      </c>
+      <c r="F129">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>18702</v>
+      </c>
+      <c r="B130">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C130">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D130">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E130">
+        <v>0.01</v>
+      </c>
+      <c r="F130">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>19802</v>
+      </c>
+      <c r="B131">
         <v>1.9E-2</v>
       </c>
-      <c r="E29">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>4402</v>
-      </c>
-      <c r="B30">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C30">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="D30">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E30">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>5502</v>
-      </c>
-      <c r="B31">
-        <v>0.02</v>
-      </c>
-      <c r="C31">
-        <v>2.2160000000000002</v>
-      </c>
-      <c r="D31">
-        <v>0.02</v>
-      </c>
-      <c r="E31">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>6602</v>
-      </c>
-      <c r="B32">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C32">
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="D32">
+      <c r="C131">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D131">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E131">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F131">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>20902</v>
+      </c>
+      <c r="B132">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C132">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E32">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>7702</v>
-      </c>
-      <c r="B33">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C33">
-        <v>4.0060000000000002</v>
-      </c>
-      <c r="D33">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E33">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1102</v>
-      </c>
-      <c r="B38">
-        <v>1E-3</v>
-      </c>
-      <c r="C38">
-        <v>2E-3</v>
-      </c>
-      <c r="D38">
-        <v>1E-3</v>
-      </c>
-      <c r="E38">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2202</v>
-      </c>
-      <c r="B39">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C39">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D39">
-        <v>1E-3</v>
-      </c>
-      <c r="E39">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3302</v>
-      </c>
-      <c r="B40">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C40">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D40">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E40">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>4402</v>
-      </c>
-      <c r="B41">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C41">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D41">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E41">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>5502</v>
-      </c>
-      <c r="B42">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C42">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D42">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E42">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>6602</v>
-      </c>
-      <c r="B43">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C43">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D43">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E43">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>7702</v>
-      </c>
-      <c r="B44">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C44">
+      <c r="D132">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E132">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D44">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E44">
-        <v>6.0000000000000001E-3</v>
+      <c r="F132">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
